--- a/01需求池/03需求跟踪表.xlsx
+++ b/01需求池/03需求跟踪表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\公司项目资料\产品项目\2019-10-10智慧云中医\01需求池\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-1455" yWindow="1515" windowWidth="14895" windowHeight="7710" tabRatio="585"/>
   </bookViews>
@@ -14,36 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
-  <si>
-    <t>已发布</t>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>需求中</t>
-  </si>
-  <si>
-    <t>新增功能</t>
-  </si>
-  <si>
-    <t>功能改进</t>
-  </si>
-  <si>
-    <t>Bug修复</t>
-  </si>
-  <si>
-    <t>界面友好性</t>
-  </si>
-  <si>
-    <t>拒绝</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>层次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,14 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大毛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,13 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块2</t>
-  </si>
-  <si>
     <t>功能改进</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -414,13 +380,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块3</t>
-  </si>
-  <si>
     <t>界面友好性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -429,13 +388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块4</t>
-  </si>
-  <si>
     <t>Bug修复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -444,13 +396,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>赵二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块5</t>
-  </si>
-  <si>
     <t>运营需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,13 +404,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>钱五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块6</t>
-  </si>
-  <si>
     <t>接口需求</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -474,241 +412,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>周六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块7</t>
-  </si>
-  <si>
-    <t>模块8</t>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大毛</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>小明</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
     <t>模块1</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>成研院</t>
+  </si>
+  <si>
+    <t>用户代表</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>医生代表</t>
+  </si>
+  <si>
+    <t>领导</t>
+  </si>
+  <si>
+    <t>商务代表</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>舌诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科普文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓高程</t>
+  </si>
+  <si>
+    <t>邓高程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能2</t>
-  </si>
-  <si>
-    <t>功能3</t>
-  </si>
-  <si>
-    <t>功能4</t>
-  </si>
-  <si>
-    <t>功能5</t>
-  </si>
-  <si>
-    <t>功能6</t>
-  </si>
-  <si>
-    <t>功能7</t>
-  </si>
-  <si>
-    <t>功能8</t>
-  </si>
-  <si>
-    <t>功能9</t>
-  </si>
-  <si>
-    <t>功能10</t>
-  </si>
-  <si>
-    <t>功能11</t>
-  </si>
-  <si>
-    <t>功能12</t>
-  </si>
-  <si>
-    <t>功能13</t>
-  </si>
-  <si>
-    <t>功能14</t>
-  </si>
-  <si>
-    <t>功能15</t>
-  </si>
-  <si>
-    <t>功能16</t>
-  </si>
-  <si>
-    <t>功能17</t>
-  </si>
-  <si>
-    <t>功能18</t>
-  </si>
-  <si>
-    <t>功能19</t>
-  </si>
-  <si>
-    <t>功能20</t>
-  </si>
-  <si>
-    <t>功能21</t>
-  </si>
-  <si>
-    <t>功能22</t>
-  </si>
-  <si>
-    <t>功能23</t>
-  </si>
-  <si>
-    <t>功能24</t>
-  </si>
-  <si>
-    <t>功能25</t>
-  </si>
-  <si>
-    <t>功能26</t>
-  </si>
-  <si>
-    <t>功能27</t>
-  </si>
-  <si>
-    <t>功能28</t>
-  </si>
-  <si>
-    <t>功能29</t>
-  </si>
-  <si>
-    <t>功能30</t>
   </si>
   <si>
     <t>描述1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述2</t>
-  </si>
-  <si>
-    <t>描述3</t>
-  </si>
-  <si>
-    <t>描述4</t>
-  </si>
-  <si>
-    <t>描述5</t>
-  </si>
-  <si>
-    <t>描述6</t>
-  </si>
-  <si>
-    <t>描述7</t>
-  </si>
-  <si>
-    <t>描述8</t>
-  </si>
-  <si>
-    <t>描述9</t>
-  </si>
-  <si>
-    <t>描述10</t>
-  </si>
-  <si>
-    <t>描述11</t>
-  </si>
-  <si>
-    <t>描述12</t>
-  </si>
-  <si>
-    <t>描述13</t>
-  </si>
-  <si>
-    <t>描述14</t>
-  </si>
-  <si>
-    <t>描述15</t>
-  </si>
-  <si>
-    <t>描述16</t>
-  </si>
-  <si>
-    <t>描述17</t>
-  </si>
-  <si>
-    <t>描述18</t>
-  </si>
-  <si>
-    <t>描述19</t>
-  </si>
-  <si>
-    <t>描述20</t>
-  </si>
-  <si>
-    <t>描述21</t>
-  </si>
-  <si>
-    <t>描述22</t>
-  </si>
-  <si>
-    <t>描述23</t>
-  </si>
-  <si>
-    <t>描述24</t>
-  </si>
-  <si>
-    <t>描述25</t>
-  </si>
-  <si>
-    <t>描述26</t>
-  </si>
-  <si>
-    <t>描述27</t>
-  </si>
-  <si>
-    <t>描述28</t>
-  </si>
-  <si>
-    <t>描述29</t>
-  </si>
-  <si>
-    <t>描述30</t>
-  </si>
-  <si>
-    <t>运营需求</t>
-  </si>
-  <si>
-    <t>接口需求</t>
-  </si>
-  <si>
-    <t>待讨论</t>
-  </si>
-  <si>
-    <t>暂缓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,6 +1178,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,9 +1298,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,187 +1306,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1660,57 +1354,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2087,7 +1740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2119,9 +1772,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2153,6 +1807,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2328,14 +1983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
@@ -2360,980 +2015,269 @@
     <col min="24" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>10</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>10</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4</v>
-      </c>
-      <c r="P6" s="1">
-        <v>10</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4</v>
-      </c>
-      <c r="P7" s="1">
-        <v>10</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="1">
-        <v>4</v>
-      </c>
-      <c r="P8" s="1">
-        <v>10</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4</v>
-      </c>
-      <c r="P9" s="1">
-        <v>10</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
-      <c r="P10" s="1">
-        <v>10</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>3</v>
-      </c>
-      <c r="P11" s="1">
-        <v>10</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-      <c r="P12" s="1">
-        <v>10</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="1">
-        <v>3</v>
-      </c>
-      <c r="P13" s="1">
-        <v>10</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="1">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1">
-        <v>10</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-      <c r="P15" s="1">
-        <v>10</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3</v>
-      </c>
-      <c r="P16" s="1">
-        <v>10</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="1">
-        <v>3</v>
-      </c>
-      <c r="P17" s="1">
-        <v>10</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <v>3</v>
-      </c>
-      <c r="P18" s="1">
-        <v>10</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="1">
-        <v>3</v>
-      </c>
-      <c r="P19" s="1">
-        <v>10</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="1">
-        <v>3</v>
-      </c>
-      <c r="P20" s="1">
-        <v>10</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O21" s="1">
-        <v>3</v>
-      </c>
-      <c r="P21" s="1">
-        <v>10</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O22" s="1">
-        <v>3</v>
-      </c>
-      <c r="P22" s="1">
-        <v>10</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="1">
-        <v>3</v>
-      </c>
-      <c r="P23" s="1">
-        <v>10</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1">
-        <v>3</v>
-      </c>
-      <c r="P24" s="1">
-        <v>10</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <v>3</v>
-      </c>
-      <c r="P25" s="1">
-        <v>10</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>2</v>
-      </c>
-      <c r="P26" s="1">
-        <v>10</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1">
-        <v>10</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="1">
-        <v>2</v>
-      </c>
-      <c r="P28" s="1">
-        <v>10</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="1">
-        <v>2</v>
-      </c>
-      <c r="P29" s="1">
-        <v>10</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" s="1">
-        <v>2</v>
-      </c>
-      <c r="P30" s="1">
-        <v>10</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>10</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O2:O31">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -3341,61 +2285,86 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"待讨论"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"需求中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"开发中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"已发布"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"暂缓"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"拒绝"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31">
-      <formula1>需求简报!$B$9:$B$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31">
-      <formula1>需求简报!$E$9:$E$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J31">
-      <formula1>需求简报!$H$9:$H$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R31">
-      <formula1>需求简报!$K$9:$K$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O31">
-      <formula1>需求简报!$N$9:$N$13</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>需求简报!$B$9:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>需求简报!$E$9:$E$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>需求简报!$H$9:$H$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>需求简报!$K$9:$K$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>需求简报!$N$9:$N$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>需求简报!$D$22:$D$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" thickBot="1">
+    <row r="1" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3413,7 +2382,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" ht="20.25">
+    <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3421,19 +2390,19 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="21" thickBot="1">
+    <row r="3" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3441,38 +2410,38 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="20">
+      <c r="H3" s="58">
         <f>COUNT(需求列表!A:A)</f>
         <v>30</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="20.25">
+    <row r="4" spans="1:16" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="20.25">
+    <row r="5" spans="1:16" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3490,7 +2459,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25">
+    <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3506,348 +2475,324 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="29"/>
-    </row>
-    <row r="7" spans="1:16" ht="21" thickBot="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="34"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="20.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="41"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="44">
+    <row r="8" spans="1:16" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="36">
         <f>COUNTIF(需求列表!B:B,B9)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="44">
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="36">
         <f>COUNTIF(需求列表!D:D,E9)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="36">
         <f>COUNTIF(需求列表!J:J,H9)</f>
-        <v>11</v>
-      </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="36">
         <f>COUNTIF(需求列表!R:R,K9)</f>
-        <v>3</v>
-      </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="48">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="40">
         <v>5</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="36">
         <f>COUNTIF(需求列表!O:O,N9)</f>
-        <v>4</v>
-      </c>
-      <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="44">
+        <v>0</v>
+      </c>
+      <c r="P9" s="41"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36">
         <f>COUNTIF(需求列表!B:B,B10)</f>
-        <v>12</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="36">
         <f>COUNTIF(需求列表!D:D,E10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="44">
+      <c r="G10" s="39"/>
+      <c r="H10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="36">
         <f>COUNTIF(需求列表!J:J,H10)</f>
-        <v>15</v>
-      </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="44">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="36">
         <f>COUNTIF(需求列表!R:R,K10)</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="48">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="40">
         <v>4</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="36">
         <f>COUNTIF(需求列表!O:O,N10)</f>
-        <v>4</v>
-      </c>
-      <c r="P10" s="49"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="44">
+        <v>0</v>
+      </c>
+      <c r="P10" s="41"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36">
         <f>COUNTIF(需求列表!B:B,B11)</f>
-        <v>8</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="36">
         <f>COUNTIF(需求列表!D:D,E11)</f>
-        <v>7</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="36">
         <f>COUNTIF(需求列表!J:J,H11)</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="44">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="36">
         <f>COUNTIF(需求列表!R:R,K11)</f>
-        <v>4</v>
-      </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="48">
+        <v>0</v>
+      </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="40">
         <v>3</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="36">
         <f>COUNTIF(需求列表!O:O,N11)</f>
-        <v>16</v>
-      </c>
-      <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="44">
+        <v>0</v>
+      </c>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36">
         <f>COUNTIF(需求列表!B:B,B12)</f>
-        <v>9</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="36">
         <f>COUNTIF(需求列表!D:D,E12)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="44">
+      <c r="G12" s="39"/>
+      <c r="H12" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="36">
         <f>COUNTIF(需求列表!J:J,H12)</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="36">
         <f>COUNTIF(需求列表!R:R,K12)</f>
-        <v>11</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="48">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="40">
         <v>2</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="36">
         <f>COUNTIF(需求列表!O:O,N12)</f>
-        <v>5</v>
-      </c>
-      <c r="P12" s="52"/>
-    </row>
-    <row r="13" spans="1:16" ht="21" thickBot="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="44">
+        <v>0</v>
+      </c>
+      <c r="P12" s="44"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36">
         <f>COUNTIF(需求列表!B:B,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="44">
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="36">
         <f>COUNTIF(需求列表!D:D,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="36">
+        <f>COUNTIF(需求列表!J:J,H13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="36">
+        <f>COUNTIF(需求列表!R:R,K13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="45">
         <v>1</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="44">
-        <f>COUNTIF(需求列表!J:J,H13)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="44">
-        <f>COUNTIF(需求列表!R:R,K13)</f>
-        <v>5</v>
-      </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="53">
-        <v>1</v>
-      </c>
-      <c r="O13" s="44">
+      <c r="O13" s="36">
         <f>COUNTIF(需求列表!O:O,N13)</f>
-        <v>1</v>
-      </c>
-      <c r="P13" s="54"/>
-    </row>
-    <row r="14" spans="1:16" ht="21" thickBot="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="44">
+        <v>0</v>
+      </c>
+      <c r="P13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36">
         <f>COUNTIF(需求列表!B:B,B14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="44">
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="36">
         <f>COUNTIF(需求列表!D:D,E14)</f>
-        <v>15</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="36">
         <f>COUNTIF(需求列表!J:J,H14)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="44">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="36">
         <f>COUNTIF(需求列表!R:R,K14)</f>
-        <v>6</v>
-      </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" ht="21" thickBot="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="44">
+    <row r="15" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="36">
         <f>COUNTIF(需求列表!B:B,B15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="44">
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="36">
         <f>COUNTIF(需求列表!D:D,E15)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="26"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="32"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="8"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" ht="20.25">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="44">
+      <c r="D16" s="50"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="36">
         <f>COUNTIF(需求列表!D:D,E16)</f>
-        <v>2</v>
-      </c>
-      <c r="G16" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -3858,19 +2803,17 @@
       <c r="O16" s="8"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="21" thickBot="1">
+    <row r="17" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="44">
+      <c r="D17" s="16"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="36">
         <f>COUNTIF(需求列表!D:D,E17)</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="56"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="48"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -3881,13 +2824,13 @@
       <c r="O17" s="8"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:16" ht="20.25">
+    <row r="18" spans="1:16" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -3898,6 +2841,46 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="14"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3916,210 +2899,210 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="49.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="49.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="6" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="6" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="4" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="4" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="6" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="6" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6" t="s">
+    <row r="25" spans="2:3" ht="63.75" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="63.75">
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4129,21 +3112,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00E585DEA8000F46438CF5713BBF3866D2</ContentTypeId>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AutoVersionDisabled xmlns="http://schemas.microsoft.com/sharepoint/v3">false</AutoVersionDisabled>
-    <ItemType xmlns="http://schemas.microsoft.com/sharepoint/v3">1</ItemType>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="_Docs_" ma:contentTypeID="0x00E585DEA8000F46438CF5713BBF3866D2" ma:contentTypeVersion="" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="45da61177855e7dcf3d28dd8bdf6963b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e5d9eca856144ce6ca1da655f95619c" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4497,22 +3465,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5150F-8A62-4B87-B82A-B91E4E66DB21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00E585DEA8000F46438CF5713BBF3866D2</ContentTypeId>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AutoVersionDisabled xmlns="http://schemas.microsoft.com/sharepoint/v3">false</AutoVersionDisabled>
+    <ItemType xmlns="http://schemas.microsoft.com/sharepoint/v3">1</ItemType>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Description xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3340974-AE7E-433C-AE6D-CC6C1F981082}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4527,4 +3495,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5150F-8A62-4B87-B82A-B91E4E66DB21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>